--- a/Documentation/data dictionary.xlsx
+++ b/Documentation/data dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronal\Documents\BPA-NMH\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7678B662-1D0D-4C86-A3C3-04C3ACDA56ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31D6B3F-8B5A-4737-9A12-A182499629DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0F83698-6B1B-48FF-B61F-2AB3F9290040}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="94">
   <si>
     <t>Field Name</t>
   </si>
@@ -218,24 +218,6 @@
     <t>FSEC</t>
   </si>
   <si>
-    <t>Form Type</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Form Data</t>
-  </si>
-  <si>
-    <t>LongText</t>
-  </si>
-  <si>
-    <t>Sanitary,Fire,Electrical</t>
-  </si>
-  <si>
-    <t>ENTITY: FORMS TRY</t>
-  </si>
-  <si>
     <t>ENTITY: FORMS ELECTRICAL</t>
   </si>
   <si>
@@ -333,6 +315,9 @@
   </si>
   <si>
     <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>ENTITY: PLAN DETAILS</t>
   </si>
 </sst>
 </file>
@@ -703,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE124AD6-2167-4C2B-A913-156F68491063}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,79 +1246,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50">
-        <v>36</v>
-      </c>
-      <c r="E50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53">
-        <v>123</v>
-      </c>
-    </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2"/>
     </row>
@@ -1373,7 +1288,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -1384,31 +1299,31 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B63" s="2"/>
     </row>
@@ -1448,7 +1363,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -1459,7 +1374,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -1470,7 +1385,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -1481,15 +1396,15 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2"/>
     </row>
@@ -1529,7 +1444,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
@@ -1540,7 +1455,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -1551,7 +1466,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -1562,7 +1477,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -1570,142 +1485,34 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="D80">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84">
-        <v>36</v>
-      </c>
-      <c r="E84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91">
         <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2"/>
     </row>
@@ -1745,7 +1552,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -1756,7 +1563,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -1772,7 +1579,7 @@
     </row>
     <row r="101" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2"/>
     </row>
@@ -1812,7 +1619,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
@@ -1823,7 +1630,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -1839,7 +1646,7 @@
     </row>
     <row r="108" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B108" s="2"/>
     </row>
@@ -1879,7 +1686,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
@@ -1890,7 +1697,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
@@ -1901,7 +1708,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
         <v>14</v>
@@ -1912,7 +1719,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
         <v>14</v>
@@ -1934,7 +1741,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
@@ -1945,7 +1752,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
@@ -1956,35 +1763,33 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
